--- a/medicine/Psychotrope/Précoce_de_Malingre/Précoce_de_Malingre.xlsx
+++ b/medicine/Psychotrope/Précoce_de_Malingre/Précoce_de_Malingre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9coce_de_Malingre</t>
+          <t>Précoce_de_Malingre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  précoce de Malingre est un cépage français de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9coce_de_Malingre</t>
+          <t>Précoce_de_Malingre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention d'un jardinier des environs de Paris nommé Malingre vers 1840. L'origine génétique est inconnu mais ce serait un semis de pépins.
 Il est peu cultivé en Belgique, Chine, Allemagne, France, Canada, Autriche et en Europe centrale.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pr%C3%A9coce_de_Malingre</t>
+          <t>Précoce_de_Malingre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau légèrement duveteux à liseré faiblement carminé.
 Jeunes feuilles aranéeuses, vert jaunâtre.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pr%C3%A9coce_de_Malingre</t>
+          <t>Précoce_de_Malingre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est précoce: 10 jours avant le chasselas.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pr%C3%A9coce_de_Malingre</t>
+          <t>Précoce_de_Malingre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est cylindro-conique, lâche. Les raisins sont de saveur simple. Il est sensible au mildiou et à la pourriture grise.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pr%C3%A9coce_de_Malingre</t>
+          <t>Précoce_de_Malingre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le précoce de Malingre est connu sous les noms de chasselas de tramontaner, early malingre, früher Malingre, Früher gelber Malinger, frühreifender Malingre, hodvapne, korai Malingre, Madeleine blanche de Malingre, malenga, malingrovo rané, malngr prekos, malengr ranii, prakosa, précoce blanc, precos blan; prekos de Malengr, seyanets Malengra
 </t>
